--- a/meta/en/3-3-4.xlsx
+++ b/meta/en/3-3-4.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -114,9 +113,6 @@
   </si>
   <si>
     <t>(0312) 32 46 52</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t>Hepatitis B incidence per 100,000 population as defined as the estimated number of new Hepatitis B cases arising in a given year, expressed as a rate per 100 000 population.</t>
@@ -153,6 +149,9 @@
   <si>
     <t>Details on data sources and methodology available in the following publicly available document: https://arxiv.org/ftp/arxiv/papers/1603/1603.00278.pdf
 KR National SDG Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
@@ -560,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +643,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -658,7 +657,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -666,7 +665,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -674,7 +673,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -688,7 +687,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -696,7 +695,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -710,7 +709,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -736,7 +735,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -744,7 +743,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -752,7 +751,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,7 +759,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
